--- a/biology/Botanique/Olearia/Olearia.xlsx
+++ b/biology/Botanique/Olearia/Olearia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olearia est un genre de plante à fleurs appartenant à la famille des Asteraceae. Il y a environ 130 espèces dans le genre trouvées essentiellement en Australie, Nouvelle-Guinée et Nouvelle-Zélande. Le genre comprend des herbes, des buissons et plus rarement des petits arbres.
 Certaines espèces d'Olearia sont parasitées par les larves de quelques papillons notamment Aenetus ligniveren, qui pénètrent dans les tiges.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
